--- a/biology/Écologie/Écopastoralisme/Écopastoralisme.xlsx
+++ b/biology/Écologie/Écopastoralisme/Écopastoralisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89copastoralisme</t>
+          <t>Écopastoralisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écopastoralisme ou éco-pâturage est un mode d'entretien des espaces naturels et des territoires par le pâturage d'animaux herbivores.
 L'éco-pâturage est l'une des solutions susceptible d'être associée au génie écologique, souvent retenue pour la gestion de réserves naturelles et d'un nombre croissant d'espaces verts où l'on souhaite pratiquer une gestion différenciée et moins artificialisante.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89copastoralisme</t>
+          <t>Écopastoralisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Enjeux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>À condition qu'il soit bien conduit pour éviter le surpâturage ou le sous-pâturage, l'écopastoralisme présente plusieurs intérêts :
 Maintien d'une flore plus diversifiée, au travers d'une gestion restauratoire et différenciée ;
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89copastoralisme</t>
+          <t>Écopastoralisme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Typologie d'animaux[2]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Du choix et du nombre d'animaux, de l'espèce ou de la race et de son âge dépend la quantité de végétaux à brouter et du type de végétaux choisis ou rejetés par l'animal.
 Les clôtures (électrifiées parfois), les soins et la surveillance sont aussi à adapter aux animaux.
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89copastoralisme</t>
+          <t>Écopastoralisme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,13 +603,15 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, se sont tenues en 2012 les premières rencontres de l'écopastoralisme en tant que solution alternative de gestion écologique des espaces verts par des herbivores issus de races rustiques[3], organisée par l'association « Entretien Nature &amp; Territoire ».
-Parmi les villes qui ont décidé de tester puis développer l'écopastoralisme urbain  avec transhumance intra-urbaine figurent par exemple en France Montpellier[4] et Lille[1].
-La pratique s’est développée dans les villes à partir des années 2000 comme l’explique Alain Divo, co-auteur du Traité d’écopaysage, précurseur de l’éco-pâturage en France[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, se sont tenues en 2012 les premières rencontres de l'écopastoralisme en tant que solution alternative de gestion écologique des espaces verts par des herbivores issus de races rustiques, organisée par l'association « Entretien Nature &amp; Territoire ».
+Parmi les villes qui ont décidé de tester puis développer l'écopastoralisme urbain  avec transhumance intra-urbaine figurent par exemple en France Montpellier et Lille.
+La pratique s’est développée dans les villes à partir des années 2000 comme l’explique Alain Divo, co-auteur du Traité d’écopaysage, précurseur de l’éco-pâturage en France.
 L’éco-pâturage prend plusieurs formes. Des professionnels du paysage se sont spécialisés dans cette solution et des sociétés spécialisées se sont créées. Des fermes pédagogiques et des associations environnementales proposent également cette solution.
-Depuis 2012, SNCF Réseau utilise l'éco-pâturage le long des voies ferrées pour entretenir la végétation et lutter contre les espèces exotiques envahissantes. En 2018, on dénombrait une cinquantaine d'initiatives de ce type menées pour suppléer l'entretien mécanique ou chimique des voies. En 2017, un protocole expérimental a été mis au point  pour mesurer l'incidence du pâturage sur la croissance et la densité des tiges de renouées[6].
+Depuis 2012, SNCF Réseau utilise l'éco-pâturage le long des voies ferrées pour entretenir la végétation et lutter contre les espèces exotiques envahissantes. En 2018, on dénombrait une cinquantaine d'initiatives de ce type menées pour suppléer l'entretien mécanique ou chimique des voies. En 2017, un protocole expérimental a été mis au point  pour mesurer l'incidence du pâturage sur la croissance et la densité des tiges de renouées.
 </t>
         </is>
       </c>
